--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H2">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>17.35379716321425</v>
+        <v>44.24836572320267</v>
       </c>
       <c r="R2">
-        <v>17.35379716321425</v>
+        <v>398.235291508824</v>
       </c>
       <c r="S2">
-        <v>0.00263588668393597</v>
+        <v>0.006187370219277298</v>
       </c>
       <c r="T2">
-        <v>0.00263588668393597</v>
+        <v>0.006187370219277296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H3">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>479.838872997177</v>
+        <v>633.0249328346827</v>
       </c>
       <c r="R3">
-        <v>479.838872997177</v>
+        <v>5697.224395512144</v>
       </c>
       <c r="S3">
-        <v>0.07288323609366407</v>
+        <v>0.08851761084200863</v>
       </c>
       <c r="T3">
-        <v>0.07288323609366407</v>
+        <v>0.08851761084200861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H4">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>73.0158529379668</v>
+        <v>96.83272190237068</v>
       </c>
       <c r="R4">
-        <v>73.0158529379668</v>
+        <v>871.4944971213361</v>
       </c>
       <c r="S4">
-        <v>0.01109045545855431</v>
+        <v>0.01354038482456576</v>
       </c>
       <c r="T4">
-        <v>0.01109045545855431</v>
+        <v>0.01354038482456575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H5">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>168.1736391587089</v>
+        <v>334.6768207122301</v>
       </c>
       <c r="R5">
-        <v>168.1736391587089</v>
+        <v>3012.091386410071</v>
       </c>
       <c r="S5">
-        <v>0.02554407268209585</v>
+        <v>0.04679877685225792</v>
       </c>
       <c r="T5">
-        <v>0.02554407268209585</v>
+        <v>0.04679877685225792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H6">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>4650.062964479316</v>
+        <v>4787.945689971358</v>
       </c>
       <c r="R6">
-        <v>4650.062964479316</v>
+        <v>43091.51120974222</v>
       </c>
       <c r="S6">
-        <v>0.7063030028676799</v>
+        <v>0.6695115647652365</v>
       </c>
       <c r="T6">
-        <v>0.7063030028676799</v>
+        <v>0.6695115647652364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H7">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>707.5881773519947</v>
+        <v>732.4037165558689</v>
       </c>
       <c r="R7">
-        <v>707.5881773519947</v>
+        <v>6591.633449002819</v>
       </c>
       <c r="S7">
-        <v>0.1074763198423365</v>
+        <v>0.1024140184668903</v>
       </c>
       <c r="T7">
-        <v>0.1074763198423365</v>
+        <v>0.1024140184668903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H8">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>14.84066980020168</v>
+        <v>29.85319738807466</v>
       </c>
       <c r="R8">
-        <v>14.84066980020168</v>
+        <v>268.6787764926719</v>
       </c>
       <c r="S8">
-        <v>0.002254165099380293</v>
+        <v>0.004174454388319284</v>
       </c>
       <c r="T8">
-        <v>0.002254165099380293</v>
+        <v>0.004174454388319283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H9">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>410.3499772687816</v>
+        <v>427.0851129215146</v>
       </c>
       <c r="R9">
-        <v>410.3499772687816</v>
+        <v>3843.766016293631</v>
       </c>
       <c r="S9">
-        <v>0.06232849391192665</v>
+        <v>0.0597204815499341</v>
       </c>
       <c r="T9">
-        <v>0.06232849391192665</v>
+        <v>0.05972048154993409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H10">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>62.4419055634362</v>
+        <v>65.33046618397867</v>
       </c>
       <c r="R10">
-        <v>62.4419055634362</v>
+        <v>587.974195655808</v>
       </c>
       <c r="S10">
-        <v>0.009484367360426363</v>
+        <v>0.009135338091510304</v>
       </c>
       <c r="T10">
-        <v>0.009484367360426363</v>
+        <v>0.009135338091510303</v>
       </c>
     </row>
   </sheetData>
